--- a/bab_result.xlsx
+++ b/bab_result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjh\Documents\maxing_out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjh\Documents\anomalies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA31AC48-FF89-4D3F-ACD5-440C01AEAAE0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC7971E-F4FA-47CA-8D31-6E241FCC5698}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="nine" sheetId="24" r:id="rId10"/>
     <sheet name="ten" sheetId="25" r:id="rId11"/>
     <sheet name="bab_pf" sheetId="26" r:id="rId12"/>
-    <sheet name="result" sheetId="1" r:id="rId13"/>
+    <sheet name="raw_data" sheetId="1" r:id="rId13"/>
     <sheet name="fnguide" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="179017"/>
@@ -548,11 +548,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BAB pf return</t>
+    <t>시간(개월)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>시간(개월)</t>
+    <t>BAB pf return</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +562,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0.000_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.000_ "/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -920,7 +920,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -931,9 +931,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -941,6 +938,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,7 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1512,7 +1512,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -1704,7 +1704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result!$P$2:$P$62</c:f>
+              <c:f>raw_data!$P$2:$P$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1914,7 +1914,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -2456,7 +2456,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -2997,7 +2997,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -3189,7 +3189,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result!$Q$2:$Q$62</c:f>
+              <c:f>raw_data!$Q$2:$Q$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -3399,7 +3399,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -3941,7 +3941,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -4482,7 +4482,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -4674,7 +4674,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result!$R$2:$R$62</c:f>
+              <c:f>raw_data!$R$2:$R$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -4884,7 +4884,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -5426,7 +5426,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -5967,7 +5967,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -6159,7 +6159,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result!$S$2:$S$62</c:f>
+              <c:f>raw_data!$S$2:$S$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -6369,7 +6369,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -6911,7 +6911,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -7452,7 +7452,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -7644,7 +7644,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result!$T$2:$T$62</c:f>
+              <c:f>raw_data!$T$2:$T$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -7854,7 +7854,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -8396,7 +8396,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -9156,187 +9156,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>7.4953517241379313</c:v>
+                  <c:v>4.0898703448275864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.268303448275864</c:v>
+                  <c:v>6.7847806896551726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.6307448275862093</c:v>
+                  <c:v>-4.0238289655172421</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8654344827586238</c:v>
+                  <c:v>2.7000468965517248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.9825793103448301</c:v>
+                  <c:v>-1.7055558620689668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.34256551724138</c:v>
+                  <c:v>-0.62964689655172323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.6461793103448272</c:v>
+                  <c:v>-1.0187558620689652</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4017931034482762</c:v>
+                  <c:v>1.9137186206896555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6949655172413802</c:v>
+                  <c:v>2.9736331034482761</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8348689655172414</c:v>
+                  <c:v>0.55793379310344826</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6127310344827572</c:v>
+                  <c:v>2.8533462068965512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.7336827586206911</c:v>
+                  <c:v>-1.3780965517241381</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3238482758620691</c:v>
+                  <c:v>2.1128496551724143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0519310344827577</c:v>
+                  <c:v>1.0874262068965519</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5030896551724124</c:v>
+                  <c:v>2.4894979310344825</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6003862068965518</c:v>
+                  <c:v>-0.12160275862068937</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.38372413793103499</c:v>
+                  <c:v>1.1303751724137934</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.050662068965517</c:v>
+                  <c:v>6.9177324137931038</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.77558620689655</c:v>
+                  <c:v>7.4995172413793103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7737517241379317</c:v>
+                  <c:v>-4.9329655172413833E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.82041379310344897</c:v>
+                  <c:v>-4.9347227586206897</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0317655172413804</c:v>
+                  <c:v>2.446833103448276</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.1174758620689675</c:v>
+                  <c:v>-2.325335172413793</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-11.563848275862069</c:v>
+                  <c:v>-4.5863696551724153</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.6783724137931024</c:v>
+                  <c:v>4.1088744827586208</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-5.3583862068965491</c:v>
+                  <c:v>-3.9730372413793109</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.142289655172414</c:v>
+                  <c:v>1.9128579310344827</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.8097931034482757</c:v>
+                  <c:v>-0.7442813793103451</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.0457793103448267</c:v>
+                  <c:v>7.0873158620689658</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.5334758620689648</c:v>
+                  <c:v>0.18605517241379355</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-7.5560965517241385</c:v>
+                  <c:v>-3.4575393103448282</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3.9912965517241381</c:v>
+                  <c:v>-1.1596193103448276</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.1385655172413802</c:v>
+                  <c:v>-0.85867310344827552</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.47117241379310304</c:v>
+                  <c:v>1.9779944827586202</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.1860000000000017</c:v>
+                  <c:v>5.1487200000000009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-8.4956965517241372</c:v>
+                  <c:v>-3.0083393103448275</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.7151310344827593</c:v>
+                  <c:v>-3.8386262068965533</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.9297931034482776</c:v>
+                  <c:v>-1.1125986206896559</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.1454896551724154</c:v>
+                  <c:v>4.3975779310344834</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.64597241379310333</c:v>
+                  <c:v>-3.0475144827586211</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-13.263296551724135</c:v>
+                  <c:v>-8.154819310344827</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.6808689655172437</c:v>
+                  <c:v>-0.22969379310344817</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1621793103448286</c:v>
+                  <c:v>1.3109158620689656</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-7.298055172413795</c:v>
+                  <c:v>-3.6064910344827603</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-4.3893241379310357</c:v>
+                  <c:v>-0.88074482758620709</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.0980551724137944</c:v>
+                  <c:v>-3.5010510344827588</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-5.455103448275862</c:v>
+                  <c:v>-2.7089406896551722</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3788137931034479</c:v>
+                  <c:v>1.8534427586206905</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-13.211075862068959</c:v>
+                  <c:v>-2.3891751724137924</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.1597103448275874</c:v>
+                  <c:v>2.8764220689655171</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.3964965517241357</c:v>
+                  <c:v>-1.9623393103448272</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-5.6430896551724139</c:v>
+                  <c:v>-0.8839779310344833</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-4.5578344827586204</c:v>
+                  <c:v>-1.9691668965517242</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4577793103448269</c:v>
+                  <c:v>0.99923586206896553</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.5986758620689656</c:v>
+                  <c:v>1.9658151724137931</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.328234482758619</c:v>
+                  <c:v>0.63772689655172421</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.0845931034482739</c:v>
+                  <c:v>1.6112386206896554</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.7610620689655176</c:v>
+                  <c:v>-0.57618758620689614</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-13.045282758620679</c:v>
+                  <c:v>-6.6552965517241365</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-5.8173241379310321</c:v>
+                  <c:v>2.1194151724137944</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.3375172413793122</c:v>
+                  <c:v>2.4073434482758627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9679,7 +9679,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -9871,7 +9871,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result!$U$2:$U$62</c:f>
+              <c:f>raw_data!$U$2:$U$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -10081,7 +10081,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -10623,7 +10623,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -11164,7 +11164,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -11356,7 +11356,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result!$V$2:$V$62</c:f>
+              <c:f>raw_data!$V$2:$V$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -11566,7 +11566,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -12108,7 +12108,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -12649,7 +12649,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -12841,192 +12841,192 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result!$X$2:$X$62</c:f>
+              <c:f>raw_data!$X$2:$X$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>7.4953517241379313</c:v>
+                  <c:v>4.0898703448275864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.268303448275864</c:v>
+                  <c:v>6.7847806896551726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.6307448275862093</c:v>
+                  <c:v>-4.0238289655172421</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8654344827586238</c:v>
+                  <c:v>2.7000468965517248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.9825793103448301</c:v>
+                  <c:v>-1.7055558620689668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.34256551724138</c:v>
+                  <c:v>-0.62964689655172323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.6461793103448272</c:v>
+                  <c:v>-1.0187558620689652</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4017931034482762</c:v>
+                  <c:v>1.9137186206896555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6949655172413802</c:v>
+                  <c:v>2.9736331034482761</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8348689655172414</c:v>
+                  <c:v>0.55793379310344826</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6127310344827572</c:v>
+                  <c:v>2.8533462068965512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.7336827586206911</c:v>
+                  <c:v>-1.3780965517241381</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3238482758620691</c:v>
+                  <c:v>2.1128496551724143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0519310344827577</c:v>
+                  <c:v>1.0874262068965519</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5030896551724124</c:v>
+                  <c:v>2.4894979310344825</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6003862068965518</c:v>
+                  <c:v>-0.12160275862068937</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.38372413793103499</c:v>
+                  <c:v>1.1303751724137934</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.050662068965517</c:v>
+                  <c:v>6.9177324137931038</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.77558620689655</c:v>
+                  <c:v>7.4995172413793103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7737517241379317</c:v>
+                  <c:v>-4.9329655172413833E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.82041379310344897</c:v>
+                  <c:v>-4.9347227586206897</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0317655172413804</c:v>
+                  <c:v>2.446833103448276</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.1174758620689675</c:v>
+                  <c:v>-2.325335172413793</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-11.563848275862069</c:v>
+                  <c:v>-4.5863696551724153</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.6783724137931024</c:v>
+                  <c:v>4.1088744827586208</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-5.3583862068965491</c:v>
+                  <c:v>-3.9730372413793109</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.142289655172414</c:v>
+                  <c:v>1.9128579310344827</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.8097931034482757</c:v>
+                  <c:v>-0.7442813793103451</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.0457793103448267</c:v>
+                  <c:v>7.0873158620689658</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.5334758620689648</c:v>
+                  <c:v>0.18605517241379355</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-7.5560965517241385</c:v>
+                  <c:v>-3.4575393103448282</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3.9912965517241381</c:v>
+                  <c:v>-1.1596193103448276</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.1385655172413802</c:v>
+                  <c:v>-0.85867310344827552</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.47117241379310304</c:v>
+                  <c:v>1.9779944827586202</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.1860000000000017</c:v>
+                  <c:v>5.1487200000000009</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-8.4956965517241372</c:v>
+                  <c:v>-3.0083393103448275</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.7151310344827593</c:v>
+                  <c:v>-3.8386262068965533</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.9297931034482776</c:v>
+                  <c:v>-1.1125986206896559</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.1454896551724154</c:v>
+                  <c:v>4.3975779310344834</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.64597241379310333</c:v>
+                  <c:v>-3.0475144827586211</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-13.263296551724135</c:v>
+                  <c:v>-8.154819310344827</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.6808689655172437</c:v>
+                  <c:v>-0.22969379310344817</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1621793103448286</c:v>
+                  <c:v>1.3109158620689656</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-7.298055172413795</c:v>
+                  <c:v>-3.6064910344827603</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-4.3893241379310357</c:v>
+                  <c:v>-0.88074482758620709</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.0980551724137944</c:v>
+                  <c:v>-3.5010510344827588</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-5.455103448275862</c:v>
+                  <c:v>-2.7089406896551722</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3788137931034479</c:v>
+                  <c:v>1.8534427586206905</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-13.211075862068959</c:v>
+                  <c:v>-2.3891751724137924</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.1597103448275874</c:v>
+                  <c:v>2.8764220689655171</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.3964965517241357</c:v>
+                  <c:v>-1.9623393103448272</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-5.6430896551724139</c:v>
+                  <c:v>-0.8839779310344833</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-4.5578344827586204</c:v>
+                  <c:v>-1.9691668965517242</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4577793103448269</c:v>
+                  <c:v>0.99923586206896553</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.5986758620689656</c:v>
+                  <c:v>1.9658151724137931</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.328234482758619</c:v>
+                  <c:v>0.63772689655172421</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.0845931034482739</c:v>
+                  <c:v>1.6112386206896554</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.7610620689655176</c:v>
+                  <c:v>-0.57618758620689614</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-13.045282758620679</c:v>
+                  <c:v>-6.6552965517241365</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-5.8173241379310321</c:v>
+                  <c:v>2.1194151724137944</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.3375172413793122</c:v>
+                  <c:v>2.4073434482758627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13051,7 +13051,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -13593,7 +13593,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -14134,7 +14134,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -14326,7 +14326,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result!$M$2:$M$62</c:f>
+              <c:f>raw_data!$M$2:$M$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -14536,7 +14536,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -15078,7 +15078,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -15619,7 +15619,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -15811,7 +15811,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result!$N$2:$N$62</c:f>
+              <c:f>raw_data!$N$2:$N$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -16021,7 +16021,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -16563,7 +16563,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -17104,7 +17104,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -17296,7 +17296,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result!$O$2:$O$62</c:f>
+              <c:f>raw_data!$O$2:$O$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -17506,7 +17506,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -18048,7 +18048,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>result!$W$2:$W$62</c:f>
+              <c:f>raw_data!$W$2:$W$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000_ </c:formatCode>
                 <c:ptCount val="61"/>
@@ -19904,16 +19904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19948,15 +19948,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>593725</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>174625</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19966,7 +19966,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70667D8-4FFF-46D1-B68E-0D51F5A5845C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19986,32 +19986,21 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
-                  <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
-                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -20923,7 +20912,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20934,19 +20923,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="N1" s="34" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="N1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="33" t="s">
         <v>91</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -20966,11 +20955,11 @@
       <c r="F2" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="32">
         <v>0</v>
       </c>
-      <c r="O2" s="34">
-        <v>7.4953517241379313</v>
+      <c r="O2" s="33">
+        <v>4.0898703448275864</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -20992,15 +20981,15 @@
       <c r="F3" s="29">
         <v>0.54797898644741627</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="32">
         <v>1</v>
       </c>
-      <c r="O3" s="34">
-        <v>10.268303448275864</v>
+      <c r="O3" s="33">
+        <v>6.7847806896551726</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="28">
         <v>2</v>
       </c>
@@ -21016,15 +21005,15 @@
       <c r="F4" s="29">
         <v>-5.1920608811697258E-2</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="32">
         <v>2</v>
       </c>
-      <c r="O4" s="34">
-        <v>-6.6307448275862093</v>
+      <c r="O4" s="33">
+        <v>-4.0238289655172421</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="28">
         <v>3</v>
       </c>
@@ -21040,15 +21029,15 @@
       <c r="F5" s="29">
         <v>-0.14540246196261047</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="32">
         <v>3</v>
       </c>
-      <c r="O5" s="34">
-        <v>4.8654344827586238</v>
+      <c r="O5" s="33">
+        <v>2.7000468965517248</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="28">
         <v>4</v>
       </c>
@@ -21064,15 +21053,15 @@
       <c r="F6" s="29">
         <v>0.96214494434890085</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="32">
         <v>4</v>
       </c>
-      <c r="O6" s="34">
-        <v>-6.9825793103448301</v>
+      <c r="O6" s="33">
+        <v>-1.7055558620689668</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="28">
         <v>5</v>
       </c>
@@ -21088,15 +21077,15 @@
       <c r="F7" s="29">
         <v>1.1176417810539101</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="32">
         <v>5</v>
       </c>
-      <c r="O7" s="34">
-        <v>1.34256551724138</v>
+      <c r="O7" s="33">
+        <v>-0.62964689655172323</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="28">
         <v>6</v>
       </c>
@@ -21112,15 +21101,15 @@
       <c r="F8" s="29">
         <v>-0.68987351251555362</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="32">
         <v>6</v>
       </c>
-      <c r="O8" s="34">
-        <v>-3.6461793103448272</v>
+      <c r="O8" s="33">
+        <v>-1.0187558620689652</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="28">
         <v>7</v>
       </c>
@@ -21136,15 +21125,15 @@
       <c r="F9" s="29">
         <v>-3.2985582115299457E-2</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="32">
         <v>7</v>
       </c>
-      <c r="O9" s="34">
-        <v>7.4017931034482762</v>
+      <c r="O9" s="33">
+        <v>1.9137186206896555</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="28">
         <v>8</v>
       </c>
@@ -21160,15 +21149,15 @@
       <c r="F10" s="29">
         <v>-0.44420750364118694</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="32">
         <v>8</v>
       </c>
-      <c r="O10" s="34">
-        <v>4.6949655172413802</v>
+      <c r="O10" s="33">
+        <v>2.9736331034482761</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="28">
         <v>9</v>
       </c>
@@ -21184,11 +21173,11 @@
       <c r="F11" s="29">
         <v>-0.93400194214469712</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="32">
         <v>9</v>
       </c>
-      <c r="O11" s="34">
-        <v>1.8348689655172414</v>
+      <c r="O11" s="33">
+        <v>0.55793379310344826</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -21210,19 +21199,19 @@
       <c r="F12" s="29">
         <v>-0.81585688957071811</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="32">
         <v>10</v>
       </c>
-      <c r="O12" s="34">
-        <v>6.6127310344827572</v>
+      <c r="O12" s="33">
+        <v>2.8533462068965512</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="N13" s="33">
+      <c r="N13" s="32">
         <v>11</v>
       </c>
-      <c r="O13" s="34">
-        <v>-2.7336827586206911</v>
+      <c r="O13" s="33">
+        <v>-1.3780965517241381</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -21230,399 +21219,399 @@
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
-      <c r="N14" s="33">
+      <c r="N14" s="32">
         <v>12</v>
       </c>
-      <c r="O14" s="34">
-        <v>4.3238482758620691</v>
+      <c r="O14" s="33">
+        <v>2.1128496551724143</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="N15" s="33">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="N15" s="32">
         <v>13</v>
       </c>
-      <c r="O15" s="34">
-        <v>6.0519310344827577</v>
+      <c r="O15" s="33">
+        <v>1.0874262068965519</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="N16" s="33">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="N16" s="32">
         <v>14</v>
       </c>
-      <c r="O16" s="34">
-        <v>2.5030896551724124</v>
+      <c r="O16" s="33">
+        <v>2.4894979310344825</v>
       </c>
     </row>
     <row r="17" spans="14:15">
-      <c r="N17" s="33">
+      <c r="N17" s="32">
         <v>15</v>
       </c>
-      <c r="O17" s="34">
-        <v>1.6003862068965518</v>
+      <c r="O17" s="33">
+        <v>-0.12160275862068937</v>
       </c>
     </row>
     <row r="18" spans="14:15">
-      <c r="N18" s="33">
+      <c r="N18" s="32">
         <v>16</v>
       </c>
-      <c r="O18" s="34">
-        <v>-0.38372413793103499</v>
+      <c r="O18" s="33">
+        <v>1.1303751724137934</v>
       </c>
     </row>
     <row r="19" spans="14:15">
-      <c r="N19" s="33">
+      <c r="N19" s="32">
         <v>17</v>
       </c>
-      <c r="O19" s="34">
-        <v>10.050662068965517</v>
+      <c r="O19" s="33">
+        <v>6.9177324137931038</v>
       </c>
     </row>
     <row r="20" spans="14:15">
-      <c r="N20" s="33">
+      <c r="N20" s="32">
         <v>18</v>
       </c>
-      <c r="O20" s="34">
-        <v>13.77558620689655</v>
+      <c r="O20" s="33">
+        <v>7.4995172413793103</v>
       </c>
     </row>
     <row r="21" spans="14:15">
-      <c r="N21" s="33">
+      <c r="N21" s="32">
         <v>19</v>
       </c>
-      <c r="O21" s="34">
-        <v>2.7737517241379317</v>
+      <c r="O21" s="33">
+        <v>-4.9329655172413833E-2</v>
       </c>
     </row>
     <row r="22" spans="14:15">
-      <c r="N22" s="33">
+      <c r="N22" s="32">
         <v>20</v>
       </c>
-      <c r="O22" s="34">
-        <v>-0.82041379310344897</v>
+      <c r="O22" s="33">
+        <v>-4.9347227586206897</v>
       </c>
     </row>
     <row r="23" spans="14:15">
-      <c r="N23" s="33">
+      <c r="N23" s="32">
         <v>21</v>
       </c>
-      <c r="O23" s="34">
-        <v>6.0317655172413804</v>
+      <c r="O23" s="33">
+        <v>2.446833103448276</v>
       </c>
     </row>
     <row r="24" spans="14:15">
-      <c r="N24" s="33">
+      <c r="N24" s="32">
         <v>22</v>
       </c>
-      <c r="O24" s="34">
-        <v>-2.1174758620689675</v>
+      <c r="O24" s="33">
+        <v>-2.325335172413793</v>
       </c>
     </row>
     <row r="25" spans="14:15">
-      <c r="N25" s="33">
+      <c r="N25" s="32">
         <v>23</v>
       </c>
-      <c r="O25" s="34">
-        <v>-11.563848275862069</v>
+      <c r="O25" s="33">
+        <v>-4.5863696551724153</v>
       </c>
     </row>
     <row r="26" spans="14:15">
-      <c r="N26" s="33">
+      <c r="N26" s="32">
         <v>24</v>
       </c>
-      <c r="O26" s="34">
-        <v>9.6783724137931024</v>
+      <c r="O26" s="33">
+        <v>4.1088744827586208</v>
       </c>
     </row>
     <row r="27" spans="14:15">
-      <c r="N27" s="33">
+      <c r="N27" s="32">
         <v>25</v>
       </c>
-      <c r="O27" s="34">
-        <v>-5.3583862068965491</v>
+      <c r="O27" s="33">
+        <v>-3.9730372413793109</v>
       </c>
     </row>
     <row r="28" spans="14:15">
-      <c r="N28" s="33">
+      <c r="N28" s="32">
         <v>26</v>
       </c>
-      <c r="O28" s="34">
-        <v>6.142289655172414</v>
+      <c r="O28" s="33">
+        <v>1.9128579310344827</v>
       </c>
     </row>
     <row r="29" spans="14:15">
-      <c r="N29" s="33">
+      <c r="N29" s="32">
         <v>27</v>
       </c>
-      <c r="O29" s="34">
-        <v>6.8097931034482757</v>
+      <c r="O29" s="33">
+        <v>-0.7442813793103451</v>
       </c>
     </row>
     <row r="30" spans="14:15">
-      <c r="N30" s="33">
+      <c r="N30" s="32">
         <v>28</v>
       </c>
-      <c r="O30" s="34">
-        <v>9.0457793103448267</v>
+      <c r="O30" s="33">
+        <v>7.0873158620689658</v>
       </c>
     </row>
     <row r="31" spans="14:15">
-      <c r="N31" s="33">
+      <c r="N31" s="32">
         <v>29</v>
       </c>
-      <c r="O31" s="34">
-        <v>2.5334758620689648</v>
+      <c r="O31" s="33">
+        <v>0.18605517241379355</v>
       </c>
     </row>
     <row r="32" spans="14:15">
-      <c r="N32" s="33">
+      <c r="N32" s="32">
         <v>30</v>
       </c>
-      <c r="O32" s="34">
-        <v>-7.5560965517241385</v>
+      <c r="O32" s="33">
+        <v>-3.4575393103448282</v>
       </c>
     </row>
     <row r="33" spans="14:15">
-      <c r="N33" s="33">
+      <c r="N33" s="32">
         <v>31</v>
       </c>
-      <c r="O33" s="34">
-        <v>-3.9912965517241381</v>
+      <c r="O33" s="33">
+        <v>-1.1596193103448276</v>
       </c>
     </row>
     <row r="34" spans="14:15">
-      <c r="N34" s="33">
+      <c r="N34" s="32">
         <v>32</v>
       </c>
-      <c r="O34" s="34">
-        <v>-2.1385655172413802</v>
+      <c r="O34" s="33">
+        <v>-0.85867310344827552</v>
       </c>
     </row>
     <row r="35" spans="14:15">
-      <c r="N35" s="33">
+      <c r="N35" s="32">
         <v>33</v>
       </c>
-      <c r="O35" s="34">
-        <v>0.47117241379310304</v>
+      <c r="O35" s="33">
+        <v>1.9779944827586202</v>
       </c>
     </row>
     <row r="36" spans="14:15">
-      <c r="N36" s="33">
+      <c r="N36" s="32">
         <v>34</v>
       </c>
-      <c r="O36" s="34">
-        <v>4.1860000000000017</v>
+      <c r="O36" s="33">
+        <v>5.1487200000000009</v>
       </c>
     </row>
     <row r="37" spans="14:15">
-      <c r="N37" s="33">
+      <c r="N37" s="32">
         <v>35</v>
       </c>
-      <c r="O37" s="34">
-        <v>-8.4956965517241372</v>
+      <c r="O37" s="33">
+        <v>-3.0083393103448275</v>
       </c>
     </row>
     <row r="38" spans="14:15">
-      <c r="N38" s="33">
+      <c r="N38" s="32">
         <v>36</v>
       </c>
-      <c r="O38" s="34">
-        <v>-1.7151310344827593</v>
+      <c r="O38" s="33">
+        <v>-3.8386262068965533</v>
       </c>
     </row>
     <row r="39" spans="14:15">
-      <c r="N39" s="33">
+      <c r="N39" s="32">
         <v>37</v>
       </c>
-      <c r="O39" s="34">
-        <v>-4.9297931034482776</v>
+      <c r="O39" s="33">
+        <v>-1.1125986206896559</v>
       </c>
     </row>
     <row r="40" spans="14:15">
-      <c r="N40" s="33">
+      <c r="N40" s="32">
         <v>38</v>
       </c>
-      <c r="O40" s="34">
-        <v>7.1454896551724154</v>
+      <c r="O40" s="33">
+        <v>4.3975779310344834</v>
       </c>
     </row>
     <row r="41" spans="14:15">
-      <c r="N41" s="33">
+      <c r="N41" s="32">
         <v>39</v>
       </c>
-      <c r="O41" s="34">
-        <v>-0.64597241379310333</v>
+      <c r="O41" s="33">
+        <v>-3.0475144827586211</v>
       </c>
     </row>
     <row r="42" spans="14:15">
-      <c r="N42" s="33">
+      <c r="N42" s="32">
         <v>40</v>
       </c>
-      <c r="O42" s="34">
-        <v>-13.263296551724135</v>
+      <c r="O42" s="33">
+        <v>-8.154819310344827</v>
       </c>
     </row>
     <row r="43" spans="14:15">
-      <c r="N43" s="33">
+      <c r="N43" s="32">
         <v>41</v>
       </c>
-      <c r="O43" s="34">
-        <v>-2.6808689655172437</v>
+      <c r="O43" s="33">
+        <v>-0.22969379310344817</v>
       </c>
     </row>
     <row r="44" spans="14:15">
-      <c r="N44" s="33">
+      <c r="N44" s="32">
         <v>42</v>
       </c>
-      <c r="O44" s="34">
-        <v>1.1621793103448286</v>
+      <c r="O44" s="33">
+        <v>1.3109158620689656</v>
       </c>
     </row>
     <row r="45" spans="14:15">
-      <c r="N45" s="33">
+      <c r="N45" s="32">
         <v>43</v>
       </c>
-      <c r="O45" s="34">
-        <v>-7.298055172413795</v>
+      <c r="O45" s="33">
+        <v>-3.6064910344827603</v>
       </c>
     </row>
     <row r="46" spans="14:15">
-      <c r="N46" s="33">
+      <c r="N46" s="32">
         <v>44</v>
       </c>
-      <c r="O46" s="34">
-        <v>-4.3893241379310357</v>
+      <c r="O46" s="33">
+        <v>-0.88074482758620709</v>
       </c>
     </row>
     <row r="47" spans="14:15">
-      <c r="N47" s="33">
+      <c r="N47" s="32">
         <v>45</v>
       </c>
-      <c r="O47" s="34">
-        <v>-2.0980551724137944</v>
+      <c r="O47" s="33">
+        <v>-3.5010510344827588</v>
       </c>
     </row>
     <row r="48" spans="14:15">
-      <c r="N48" s="33">
+      <c r="N48" s="32">
         <v>46</v>
       </c>
-      <c r="O48" s="34">
-        <v>-5.455103448275862</v>
+      <c r="O48" s="33">
+        <v>-2.7089406896551722</v>
       </c>
     </row>
     <row r="49" spans="14:15">
-      <c r="N49" s="33">
+      <c r="N49" s="32">
         <v>47</v>
       </c>
-      <c r="O49" s="34">
-        <v>3.3788137931034479</v>
+      <c r="O49" s="33">
+        <v>1.8534427586206905</v>
       </c>
     </row>
     <row r="50" spans="14:15">
-      <c r="N50" s="33">
+      <c r="N50" s="32">
         <v>48</v>
       </c>
-      <c r="O50" s="34">
-        <v>-13.211075862068959</v>
+      <c r="O50" s="33">
+        <v>-2.3891751724137924</v>
       </c>
     </row>
     <row r="51" spans="14:15">
-      <c r="N51" s="33">
+      <c r="N51" s="32">
         <v>49</v>
       </c>
-      <c r="O51" s="34">
-        <v>4.1597103448275874</v>
+      <c r="O51" s="33">
+        <v>2.8764220689655171</v>
       </c>
     </row>
     <row r="52" spans="14:15">
-      <c r="N52" s="33">
+      <c r="N52" s="32">
         <v>50</v>
       </c>
-      <c r="O52" s="34">
-        <v>-3.3964965517241357</v>
+      <c r="O52" s="33">
+        <v>-1.9623393103448272</v>
       </c>
     </row>
     <row r="53" spans="14:15">
-      <c r="N53" s="33">
+      <c r="N53" s="32">
         <v>51</v>
       </c>
-      <c r="O53" s="34">
-        <v>-5.6430896551724139</v>
+      <c r="O53" s="33">
+        <v>-0.8839779310344833</v>
       </c>
     </row>
     <row r="54" spans="14:15">
-      <c r="N54" s="33">
+      <c r="N54" s="32">
         <v>52</v>
       </c>
-      <c r="O54" s="34">
-        <v>-4.5578344827586204</v>
+      <c r="O54" s="33">
+        <v>-1.9691668965517242</v>
       </c>
     </row>
     <row r="55" spans="14:15">
-      <c r="N55" s="33">
+      <c r="N55" s="32">
         <v>53</v>
       </c>
-      <c r="O55" s="34">
-        <v>1.4577793103448269</v>
+      <c r="O55" s="33">
+        <v>0.99923586206896553</v>
       </c>
     </row>
     <row r="56" spans="14:15">
-      <c r="N56" s="33">
+      <c r="N56" s="32">
         <v>54</v>
       </c>
-      <c r="O56" s="34">
-        <v>4.5986758620689656</v>
+      <c r="O56" s="33">
+        <v>1.9658151724137931</v>
       </c>
     </row>
     <row r="57" spans="14:15">
-      <c r="N57" s="33">
+      <c r="N57" s="32">
         <v>55</v>
       </c>
-      <c r="O57" s="34">
-        <v>3.328234482758619</v>
+      <c r="O57" s="33">
+        <v>0.63772689655172421</v>
       </c>
     </row>
     <row r="58" spans="14:15">
-      <c r="N58" s="33">
+      <c r="N58" s="32">
         <v>56</v>
       </c>
-      <c r="O58" s="34">
-        <v>7.0845931034482739</v>
+      <c r="O58" s="33">
+        <v>1.6112386206896554</v>
       </c>
     </row>
     <row r="59" spans="14:15">
-      <c r="N59" s="33">
+      <c r="N59" s="32">
         <v>57</v>
       </c>
-      <c r="O59" s="34">
-        <v>5.7610620689655176</v>
+      <c r="O59" s="33">
+        <v>-0.57618758620689614</v>
       </c>
     </row>
     <row r="60" spans="14:15">
-      <c r="N60" s="33">
+      <c r="N60" s="32">
         <v>58</v>
       </c>
-      <c r="O60" s="34">
-        <v>-13.045282758620679</v>
+      <c r="O60" s="33">
+        <v>-6.6552965517241365</v>
       </c>
     </row>
     <row r="61" spans="14:15">
-      <c r="N61" s="33">
+      <c r="N61" s="32">
         <v>59</v>
       </c>
-      <c r="O61" s="34">
-        <v>-5.8173241379310321</v>
+      <c r="O61" s="33">
+        <v>2.1194151724137944</v>
       </c>
     </row>
     <row r="62" spans="14:15">
-      <c r="N62" s="33">
+      <c r="N62" s="32">
         <v>60</v>
       </c>
-      <c r="O62" s="34">
-        <v>2.3375172413793122</v>
+      <c r="O62" s="33">
+        <v>2.4073434482758627</v>
       </c>
     </row>
   </sheetData>
@@ -24947,13 +24936,13 @@
   <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="31"/>
+      <c r="A1" s="30"/>
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
@@ -24984,46 +24973,46 @@
       <c r="K1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="35"/>
+      <c r="Y1" s="34"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1">
@@ -25107,8 +25096,8 @@
         <v>4.2349999999999994</v>
       </c>
       <c r="X2">
-        <f>M2-V2</f>
-        <v>7.4953517241379313</v>
+        <f>AVERAGE(M2,N2,O2,P2,Q2)-AVERAGE(R2,S2,T2,U2,V2)</f>
+        <v>4.0898703448275864</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -25193,8 +25182,8 @@
         <v>-1.3041666666666667</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X62" si="11">M3-V3</f>
-        <v>10.268303448275864</v>
+        <f t="shared" ref="X3:X62" si="11">AVERAGE(M3,N3,O3,P3,Q3)-AVERAGE(R3,S3,T3,U3,V3)</f>
+        <v>6.7847806896551726</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -25280,7 +25269,7 @@
       </c>
       <c r="X4">
         <f t="shared" si="11"/>
-        <v>-6.6307448275862093</v>
+        <v>-4.0238289655172421</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -25366,7 +25355,7 @@
       </c>
       <c r="X5">
         <f t="shared" si="11"/>
-        <v>4.8654344827586238</v>
+        <v>2.7000468965517248</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -25452,7 +25441,7 @@
       </c>
       <c r="X6">
         <f t="shared" si="11"/>
-        <v>-6.9825793103448301</v>
+        <v>-1.7055558620689668</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -25538,7 +25527,7 @@
       </c>
       <c r="X7">
         <f t="shared" si="11"/>
-        <v>1.34256551724138</v>
+        <v>-0.62964689655172323</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -25624,7 +25613,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="11"/>
-        <v>-3.6461793103448272</v>
+        <v>-1.0187558620689652</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -25710,7 +25699,7 @@
       </c>
       <c r="X9">
         <f t="shared" si="11"/>
-        <v>7.4017931034482762</v>
+        <v>1.9137186206896555</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -25796,7 +25785,7 @@
       </c>
       <c r="X10">
         <f t="shared" si="11"/>
-        <v>4.6949655172413802</v>
+        <v>2.9736331034482761</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -25882,7 +25871,7 @@
       </c>
       <c r="X11">
         <f t="shared" si="11"/>
-        <v>1.8348689655172414</v>
+        <v>0.55793379310344826</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -25968,7 +25957,7 @@
       </c>
       <c r="X12">
         <f t="shared" si="11"/>
-        <v>6.6127310344827572</v>
+        <v>2.8533462068965512</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -26054,7 +26043,7 @@
       </c>
       <c r="X13">
         <f t="shared" si="11"/>
-        <v>-2.7336827586206911</v>
+        <v>-1.3780965517241381</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -26140,7 +26129,7 @@
       </c>
       <c r="X14">
         <f t="shared" si="11"/>
-        <v>4.3238482758620691</v>
+        <v>2.1128496551724143</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -26226,7 +26215,7 @@
       </c>
       <c r="X15">
         <f t="shared" si="11"/>
-        <v>6.0519310344827577</v>
+        <v>1.0874262068965519</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -26312,7 +26301,7 @@
       </c>
       <c r="X16">
         <f t="shared" si="11"/>
-        <v>2.5030896551724124</v>
+        <v>2.4894979310344825</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -26398,7 +26387,7 @@
       </c>
       <c r="X17">
         <f t="shared" si="11"/>
-        <v>1.6003862068965518</v>
+        <v>-0.12160275862068937</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -26484,7 +26473,7 @@
       </c>
       <c r="X18">
         <f t="shared" si="11"/>
-        <v>-0.38372413793103499</v>
+        <v>1.1303751724137934</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -26570,7 +26559,7 @@
       </c>
       <c r="X19">
         <f t="shared" si="11"/>
-        <v>10.050662068965517</v>
+        <v>6.9177324137931038</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -26656,7 +26645,7 @@
       </c>
       <c r="X20">
         <f t="shared" si="11"/>
-        <v>13.77558620689655</v>
+        <v>7.4995172413793103</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -26742,7 +26731,7 @@
       </c>
       <c r="X21">
         <f t="shared" si="11"/>
-        <v>2.7737517241379317</v>
+        <v>-4.9329655172413833E-2</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -26828,7 +26817,7 @@
       </c>
       <c r="X22">
         <f t="shared" si="11"/>
-        <v>-0.82041379310344897</v>
+        <v>-4.9347227586206897</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -26914,7 +26903,7 @@
       </c>
       <c r="X23">
         <f t="shared" si="11"/>
-        <v>6.0317655172413804</v>
+        <v>2.446833103448276</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -27000,7 +26989,7 @@
       </c>
       <c r="X24">
         <f t="shared" si="11"/>
-        <v>-2.1174758620689675</v>
+        <v>-2.325335172413793</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -27086,7 +27075,7 @@
       </c>
       <c r="X25">
         <f t="shared" si="11"/>
-        <v>-11.563848275862069</v>
+        <v>-4.5863696551724153</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -27172,7 +27161,7 @@
       </c>
       <c r="X26">
         <f t="shared" si="11"/>
-        <v>9.6783724137931024</v>
+        <v>4.1088744827586208</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -27258,7 +27247,7 @@
       </c>
       <c r="X27">
         <f t="shared" si="11"/>
-        <v>-5.3583862068965491</v>
+        <v>-3.9730372413793109</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -27344,7 +27333,7 @@
       </c>
       <c r="X28">
         <f t="shared" si="11"/>
-        <v>6.142289655172414</v>
+        <v>1.9128579310344827</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -27430,7 +27419,7 @@
       </c>
       <c r="X29">
         <f t="shared" si="11"/>
-        <v>6.8097931034482757</v>
+        <v>-0.7442813793103451</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -27516,7 +27505,7 @@
       </c>
       <c r="X30">
         <f t="shared" si="11"/>
-        <v>9.0457793103448267</v>
+        <v>7.0873158620689658</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -27602,7 +27591,7 @@
       </c>
       <c r="X31">
         <f t="shared" si="11"/>
-        <v>2.5334758620689648</v>
+        <v>0.18605517241379355</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -27688,7 +27677,7 @@
       </c>
       <c r="X32">
         <f t="shared" si="11"/>
-        <v>-7.5560965517241385</v>
+        <v>-3.4575393103448282</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -27774,7 +27763,7 @@
       </c>
       <c r="X33">
         <f t="shared" si="11"/>
-        <v>-3.9912965517241381</v>
+        <v>-1.1596193103448276</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -27860,7 +27849,7 @@
       </c>
       <c r="X34">
         <f t="shared" si="11"/>
-        <v>-2.1385655172413802</v>
+        <v>-0.85867310344827552</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -27946,7 +27935,7 @@
       </c>
       <c r="X35">
         <f t="shared" si="11"/>
-        <v>0.47117241379310304</v>
+        <v>1.9779944827586202</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -28032,7 +28021,7 @@
       </c>
       <c r="X36">
         <f t="shared" si="11"/>
-        <v>4.1860000000000017</v>
+        <v>5.1487200000000009</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -28118,7 +28107,7 @@
       </c>
       <c r="X37">
         <f t="shared" si="11"/>
-        <v>-8.4956965517241372</v>
+        <v>-3.0083393103448275</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -28204,7 +28193,7 @@
       </c>
       <c r="X38">
         <f t="shared" si="11"/>
-        <v>-1.7151310344827593</v>
+        <v>-3.8386262068965533</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -28290,7 +28279,7 @@
       </c>
       <c r="X39">
         <f t="shared" si="11"/>
-        <v>-4.9297931034482776</v>
+        <v>-1.1125986206896559</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -28376,7 +28365,7 @@
       </c>
       <c r="X40">
         <f t="shared" si="11"/>
-        <v>7.1454896551724154</v>
+        <v>4.3975779310344834</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -28462,7 +28451,7 @@
       </c>
       <c r="X41">
         <f t="shared" si="11"/>
-        <v>-0.64597241379310333</v>
+        <v>-3.0475144827586211</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -28548,7 +28537,7 @@
       </c>
       <c r="X42">
         <f t="shared" si="11"/>
-        <v>-13.263296551724135</v>
+        <v>-8.154819310344827</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -28634,7 +28623,7 @@
       </c>
       <c r="X43">
         <f t="shared" si="11"/>
-        <v>-2.6808689655172437</v>
+        <v>-0.22969379310344817</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -28720,7 +28709,7 @@
       </c>
       <c r="X44">
         <f t="shared" si="11"/>
-        <v>1.1621793103448286</v>
+        <v>1.3109158620689656</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -28806,7 +28795,7 @@
       </c>
       <c r="X45">
         <f t="shared" si="11"/>
-        <v>-7.298055172413795</v>
+        <v>-3.6064910344827603</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -28892,7 +28881,7 @@
       </c>
       <c r="X46">
         <f t="shared" si="11"/>
-        <v>-4.3893241379310357</v>
+        <v>-0.88074482758620709</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -28978,7 +28967,7 @@
       </c>
       <c r="X47">
         <f t="shared" si="11"/>
-        <v>-2.0980551724137944</v>
+        <v>-3.5010510344827588</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -29064,7 +29053,7 @@
       </c>
       <c r="X48">
         <f t="shared" si="11"/>
-        <v>-5.455103448275862</v>
+        <v>-2.7089406896551722</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -29150,7 +29139,7 @@
       </c>
       <c r="X49">
         <f t="shared" si="11"/>
-        <v>3.3788137931034479</v>
+        <v>1.8534427586206905</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -29236,7 +29225,7 @@
       </c>
       <c r="X50">
         <f t="shared" si="11"/>
-        <v>-13.211075862068959</v>
+        <v>-2.3891751724137924</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -29322,7 +29311,7 @@
       </c>
       <c r="X51">
         <f t="shared" si="11"/>
-        <v>4.1597103448275874</v>
+        <v>2.8764220689655171</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -29408,7 +29397,7 @@
       </c>
       <c r="X52">
         <f t="shared" si="11"/>
-        <v>-3.3964965517241357</v>
+        <v>-1.9623393103448272</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -29494,7 +29483,7 @@
       </c>
       <c r="X53">
         <f t="shared" si="11"/>
-        <v>-5.6430896551724139</v>
+        <v>-0.8839779310344833</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -29580,7 +29569,7 @@
       </c>
       <c r="X54">
         <f t="shared" si="11"/>
-        <v>-4.5578344827586204</v>
+        <v>-1.9691668965517242</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -29666,7 +29655,7 @@
       </c>
       <c r="X55">
         <f t="shared" si="11"/>
-        <v>1.4577793103448269</v>
+        <v>0.99923586206896553</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -29752,7 +29741,7 @@
       </c>
       <c r="X56">
         <f t="shared" si="11"/>
-        <v>4.5986758620689656</v>
+        <v>1.9658151724137931</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -29838,7 +29827,7 @@
       </c>
       <c r="X57">
         <f t="shared" si="11"/>
-        <v>3.328234482758619</v>
+        <v>0.63772689655172421</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -29924,7 +29913,7 @@
       </c>
       <c r="X58">
         <f t="shared" si="11"/>
-        <v>7.0845931034482739</v>
+        <v>1.6112386206896554</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -30010,7 +29999,7 @@
       </c>
       <c r="X59">
         <f t="shared" si="11"/>
-        <v>5.7610620689655176</v>
+        <v>-0.57618758620689614</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -30096,7 +30085,7 @@
       </c>
       <c r="X60">
         <f t="shared" si="11"/>
-        <v>-13.045282758620679</v>
+        <v>-6.6552965517241365</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -30182,7 +30171,7 @@
       </c>
       <c r="X61">
         <f t="shared" si="11"/>
-        <v>-5.8173241379310321</v>
+        <v>2.1194151724137944</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -30268,7 +30257,7 @@
       </c>
       <c r="X62">
         <f t="shared" si="11"/>
-        <v>2.3375172413793122</v>
+        <v>2.4073434482758627</v>
       </c>
     </row>
     <row r="63" spans="1:24">
